--- a/宝来药通3.0API.xlsx
+++ b/宝来药通3.0API.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="700" windowWidth="35780" windowHeight="19540"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="招商代理" sheetId="3" r:id="rId1"/>
     <sheet name="药界资讯" sheetId="1" r:id="rId2"/>
     <sheet name="WAP页面" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="454">
   <si>
     <t>参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,43 +221,1543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>proviceid</t>
+  </si>
+  <si>
+    <t>省ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+  </si>
+  <si>
+    <t>市ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAgencyDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investid</t>
+  </si>
+  <si>
+    <t>取得专题列表（包含顶部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotspotid</t>
+  </si>
+  <si>
+    <t>热点或咨询id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北纬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东西经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据主题取得回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotspotid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inforid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加回复</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>回复人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被回复人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upuserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有userid传值为0；没有upuserid传值为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得版式页数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得单一投票数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type：1：单一 2：问卷调查 3：组合投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得WAP问卷数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wap/vote.jsp?questionid=&amp;userid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wap/vote.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机IMEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID为空时传值为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得主页图片URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.234:9101/BLZTCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（明文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commusername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（手机号、宝通号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myuserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改常驻地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类iID串（以逗号隔开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市ID串（格式 "省ID：市ID,省ID：市ID"）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/changeuserremark.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/changeprefer.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attentionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addZsAttentionUser.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provcityid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改招商代理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/changezsarea.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invagency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商代理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：招商 2：代理 3：招商代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peoperid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要查看的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPurchaseInfoForTel.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageurl</t>
+  </si>
+  <si>
+    <t>原图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateZsUserAutograph.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autograph</t>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/changeZsUserPassword.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldpasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（明文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码（明文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码（明文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID（空为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得欢迎页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/changeInvAgency.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destuserid</t>
+  </si>
+  <si>
+    <t>对方用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addMessage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方最后一次聊天时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过国药准字号取得通用名等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getDrugCommName.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国药准字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加招商信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addInvestment.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durgid</t>
+  </si>
+  <si>
+    <t>药品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quale</t>
+  </si>
+  <si>
+    <t>招商性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superiority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serchkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县ID（与市相同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字（传空值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addInvestuser.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateInvestuser.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investuserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加代理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addAgency.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durgclassificationid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品一级分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得招商列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInvestAgencyListDataByArea.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得招商详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得代理详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInvestmentDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agencyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agencyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getMypageDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateZsUserDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得他人的招商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>页号</t>
+  </si>
+  <si>
+    <t>maxrow</t>
+  </si>
+  <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>删除招商信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除代理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delAgency.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delInvest.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getOtherInvestAgencyListByArea.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otheruserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyid</t>
+  </si>
+  <si>
+    <t>县ID（传空值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的招商代理列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getMyInvestAgencyList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInvestAgencyListDataByClassify.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据分类取得招商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/zslogin.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsondata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destuserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getMessageloop.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUnreadMessageCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPharmacologyPicturelinkurl.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据列表取得资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getSerchInvestAgencyListData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县ID（传空值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getVersionByVia.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>via</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android ，iphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delZsAttentionUser.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击事件记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addUserClick.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须登录才能记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid为0是随机排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addInvestmentUser.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得资讯详细内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得题目状态页数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformationTop.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformation.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformationDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getSpecialGroupAndData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getExpertInformation.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformationSpecialList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getReplyDataByThem.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addReply.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionOneData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得组合投票页数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得单一投票结果选项数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得组合投票结果选项数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得组合投票结果排名数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getTitleState.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionThreeData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionOneAnswerData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleid</t>
+  </si>
+  <si>
+    <t>/getQuestionThreeAnswerData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionThreeAnswerResultData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addUserVoteResult.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsondata</t>
+  </si>
+  <si>
+    <t>json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPushMess.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得单一投票结果排名数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionOneAnswerResultData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.234:9101/BLSTCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addfeedback.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baolaitong.com:9101/BLZTCloud/addfeedback.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getVoteDataByUuid.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索招商代理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getMessage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPharmacologyClassify.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的短信列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得短信记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsondata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3秒轮询取聊天信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮询取短信信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getSmsMessageloop.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方最后一次发送短信时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得未读信息条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.boracloud.com:9101/BLSTCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInitImgName.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformationInitImgName.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addAndUpdateUserPic.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInformationGroupAll.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.boracloud.com:9101/BLZTCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getSMSPeopers.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getSmsMessage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsUserByprefer.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPowerswitch.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sendSMSforPeople.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getProAndCityData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destuserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得全部区域数据（省、市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addcontacts.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUserpageDetail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getMessageZsPeople.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>取得地区通讯录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proviceid</t>
-  </si>
-  <si>
-    <t>省ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityid</t>
-  </si>
-  <si>
-    <t>市ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAgencyDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investid</t>
-  </si>
-  <si>
-    <t>取得专题列表（包含顶部）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotspotid</t>
-  </si>
-  <si>
-    <t>热点或咨询id</t>
+    <t>分页取得地区通讯录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsAttentionUserByArea.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他的个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUserDetailById.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peoperid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Id取得用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机或邮件取得用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUserDetailByEmail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,1447 +1765,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南北纬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东西经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资讯ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据主题取得回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotspotid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inforid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加回复</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>回复人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被回复人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upuserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有userid传值为0；没有upuserid传值为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得版式页数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得单一投票数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type：1：单一 2：问卷调查 3：组合投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得WAP问卷数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wap/vote.jsp?questionid=&amp;userid=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wap/vote.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机IMEI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID为空时传值为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的好友列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得主页图片URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（明文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMEI码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commusername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（手机号、宝通号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myuserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改常驻地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类iID串（以逗号隔开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市ID串（格式 "省ID：市ID,省ID：市ID"）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/changeuserremark.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/changeprefer.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preferid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attentionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addZsAttentionUser.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>provcityid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改招商代理类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/changezsarea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invagency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商代理类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：招商 2：代理 3：招商代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getZsUserByprefer.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preferid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他的个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getUserpageDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peoperid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要查看的用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPurchaseInfoForTel.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新用户头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addAndUpdateUserPic.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageurl</t>
-  </si>
-  <si>
-    <t>原图片链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新个人简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateZsUserAutograph.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autograph</t>
-  </si>
-  <si>
-    <t>个人简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/changeZsUserPassword.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldpasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（明文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧密码（明文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newpasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码（明文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID（空为0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得欢迎页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/changeInvAgency.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destuserid</t>
-  </si>
-  <si>
-    <t>对方用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addMessage.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方最后一次聊天时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过国药准字号取得通用名等信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getDrugCommName.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approvalnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国药准字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加招商信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addInvestment.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durgid</t>
-  </si>
-  <si>
-    <t>药品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productname</t>
-  </si>
-  <si>
-    <t>商品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quale</t>
-  </si>
-  <si>
-    <t>招商性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superiority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serchkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县ID（与市相同）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字（传空值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addInvestuser.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateInvestuser.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investuserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加代理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addAgency.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durgclassificationid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药品一级分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得招商列表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInvestAgencyListDataByArea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proviceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得招商详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得代理详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInvestmentDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商信息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agencyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理信息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agencyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getMypageDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/updateZsUserDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得他人的招商列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>页号</t>
-  </si>
-  <si>
-    <t>maxrow</t>
-  </si>
-  <si>
-    <t>行数</t>
-  </si>
-  <si>
-    <t>删除招商信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除代理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/delAgency.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/delInvest.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgurl</t>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getOtherInvestAgencyListByArea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otheruserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countyid</t>
-  </si>
-  <si>
-    <t>县ID（传空值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的招商代理列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getMyInvestAgencyList.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classifyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInvestAgencyListDataByClassify.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据分类取得招商列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addcontacts.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/zslogin.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsondata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destuserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getZsAttentionUserByArea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getMessageloop.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getUnreadMessageCount.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPharmacologyPicturelinkurl.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInitImgName.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据列表取得资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getSerchInvestAgencyListData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县ID（传空值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getVersionByVia.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>via</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android ，iphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/delZsAttentionUser.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击事件记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addUserClick.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须登录才能记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>provinceid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid为0是随机排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addInvestmentUser.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPowerswitch.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得资讯详细内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得题目状态页数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInformationTop.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInformation.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInformationDetail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getSpecialGroupAndData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getExpertInformation.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInformationSpecialList.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getReplyDataByThem.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addReply.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getQuestionOneData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得组合投票页数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得单一投票结果选项数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得组合投票结果选项数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得组合投票结果排名数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getTitleState.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMEI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getQuestionThreeData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getQuestionOneAnswerData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleid</t>
-  </si>
-  <si>
-    <t>/getQuestionThreeAnswerData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getQuestionThreeAnswerResultData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addUserVoteResult.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsondata</t>
-  </si>
-  <si>
-    <t>json数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPushMess.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得单一投票结果排名数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getQuestionOneAnswerResultData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.234:9101/BLSTCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baolaitong.com:9101/BLZTCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addfeedback.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baolaitong.com:9101/BLZTCloud/addfeedback.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getVoteDataByUuid.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索招商代理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getSMSPeopers.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getMessageZsPeople.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getMessage.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得全部区域数据（省、市）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPharmacologyClassify.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getProAndCityData.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的短信列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得聊天记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得短信记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加聊天记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/sendSMSforPeople.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsondata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3秒轮询取聊天信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮询取短信信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getSmsMessage.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getSmsMessageloop.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方最后一次发送短信时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得未读信息条数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.boracloud.com:9101/BLSTCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInformationGroupAll.json</t>
+    <t>手机或邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.200:8080/BLZTCloud/getAllUserListByPage.json?uuid=862765010012081&amp;userid=109971&amp;maxrow=50&amp;provinceid=P13&amp;page=0&amp;cityid=C181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsAttentionUserByPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllUserListByPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllUserCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsAttentionCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页取得我的好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得地区通讯录总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页取得我的好友总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/getInvestmentUserList.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.234:9101/BLZTCloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,7 +1809,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,51 +1991,51 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1955,7 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2000,6 +2091,21 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2021,31 +2127,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2346,37 +2443,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="19" max="19" width="19.375" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="22" max="22" width="16.625" customWidth="1"/>
+    <col min="23" max="23" width="12.25" customWidth="1"/>
     <col min="25" max="25" width="12.5" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="15.1640625" customWidth="1"/>
+    <col min="26" max="26" width="11.125" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="15.125" customWidth="1"/>
+    <col min="31" max="31" width="10.625" customWidth="1"/>
+    <col min="32" max="32" width="15.125" customWidth="1"/>
+    <col min="34" max="34" width="10.625" customWidth="1"/>
+    <col min="35" max="35" width="15.125" customWidth="1"/>
     <col min="37" max="37" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2385,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D1" s="11"/>
     </row>
@@ -2394,83 +2491,83 @@
         <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>429</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="43" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="39" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41" t="s">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42" t="s">
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="37" t="s">
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -2573,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -2621,110 +2718,110 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1">
+    <row r="6" spans="1:37" s="51" customFormat="1">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="21"/>
@@ -2756,20 +2853,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2807,65 +2904,65 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="T9" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -2888,22 +2985,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2941,49 +3038,49 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3012,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -3034,7 +3131,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>122</v>
@@ -3075,10 +3172,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -3150,14 +3247,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="1"/>
@@ -3213,13 +3310,13 @@
         <v>133</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3257,7 +3354,7 @@
         <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -3270,13 +3367,13 @@
         <v>134</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3324,7 +3421,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>138</v>
@@ -3387,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>144</v>
@@ -3405,16 +3502,16 @@
         <v>32</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
@@ -3446,7 +3543,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -3456,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>144</v>
@@ -3474,16 +3571,16 @@
         <v>32</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
@@ -3512,31 +3609,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -3566,78 +3663,78 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="18"/>
     </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="1">
+    <row r="21" spans="1:37" s="51" customFormat="1">
+      <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="B21" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -3647,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>149</v>
@@ -3656,28 +3753,28 @@
         <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="Q22" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>131</v>
@@ -3709,10 +3806,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -3722,7 +3819,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3760,20 +3857,20 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>431</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>137</v>
@@ -3782,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>149</v>
@@ -3791,16 +3888,16 @@
         <v>32</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -3829,10 +3926,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -3842,7 +3939,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3880,25 +3977,25 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>129</v>
@@ -3907,13 +4004,13 @@
         <v>130</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -3945,10 +4042,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -3958,7 +4055,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>113</v>
@@ -3970,7 +4067,7 @@
         <v>115</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>114</v>
@@ -3979,7 +4076,7 @@
         <v>119</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O27" s="18" t="s">
         <v>114</v>
@@ -4014,10 +4111,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -4027,16 +4124,16 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -4071,10 +4168,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -4084,25 +4181,25 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
@@ -4134,32 +4231,32 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>114</v>
@@ -4197,14 +4294,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4244,10 +4341,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -4257,7 +4354,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>25</v>
@@ -4307,14 +4404,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>129</v>
@@ -4323,29 +4420,29 @@
         <v>130</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>197</v>
+        <v>428</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -4374,14 +4471,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>129</v>
@@ -4390,22 +4487,22 @@
         <v>130</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -4437,14 +4534,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>129</v>
@@ -4453,22 +4550,22 @@
         <v>130</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4500,14 +4597,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>129</v>
@@ -4551,20 +4648,20 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4602,110 +4699,110 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O38" s="21" t="s">
         <v>131</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AJ38" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -4713,92 +4810,92 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -4812,101 +4909,101 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AD40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4917,83 +5014,83 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>131</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
@@ -5010,47 +5107,47 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -5079,20 +5176,20 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -5130,20 +5227,20 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -5181,14 +5278,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>129</v>
@@ -5197,49 +5294,49 @@
         <v>130</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>131</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R45" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V45" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
@@ -5262,29 +5359,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
@@ -5319,29 +5416,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -5376,10 +5473,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
@@ -5392,22 +5489,22 @@
         <v>130</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5439,65 +5536,65 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>131</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V49" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
@@ -5520,14 +5617,14 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -5567,20 +5664,20 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>25</v>
@@ -5592,7 +5689,7 @@
         <v>26</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>24</v>
@@ -5630,29 +5727,29 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>421</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>25</v>
@@ -5697,29 +5794,29 @@
         <v>49</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -5754,38 +5851,38 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="N54" s="18"/>
       <c r="O54" s="1"/>
@@ -5812,139 +5909,235 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37">
-      <c r="A55" s="1">
+    <row r="55" spans="1:37" s="51" customFormat="1">
+      <c r="A55" s="13">
         <v>51</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-    </row>
-    <row r="56" spans="1:37">
-      <c r="A56" s="1">
+      <c r="B55" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+    </row>
+    <row r="56" spans="1:37" s="51" customFormat="1">
+      <c r="A56" s="13">
         <v>52</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-    </row>
-    <row r="57" spans="1:37">
-      <c r="A57" s="1">
+      <c r="B56" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
+      <c r="H56" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="13"/>
+    </row>
+    <row r="57" spans="1:37" s="51" customFormat="1">
+      <c r="A57" s="13">
+        <v>53</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -5980,12 +6173,22 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -6017,46 +6220,50 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37">
-      <c r="A60" s="1">
+    <row r="60" spans="1:37" s="51" customFormat="1">
+      <c r="A60" s="13">
         <v>56</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
+      <c r="B60" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="1">
@@ -6349,7 +6556,9 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
@@ -7413,12 +7622,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="N3:P3"/>
@@ -7427,65 +7630,67 @@
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B68" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="12.25" customWidth="1"/>
     <col min="25" max="25" width="12.5" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="15.1640625" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.125" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="15.125" customWidth="1"/>
+    <col min="31" max="31" width="10.625" customWidth="1"/>
+    <col min="32" max="32" width="15.125" customWidth="1"/>
+    <col min="34" max="34" width="10.625" customWidth="1"/>
+    <col min="35" max="35" width="15.125" customWidth="1"/>
+    <col min="37" max="37" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="B1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D1"/>
     </row>
@@ -7494,84 +7699,84 @@
         <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="43" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="39" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41" t="s">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42" t="s">
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="37" t="s">
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -7678,7 +7883,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -7730,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -7773,10 +7978,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -7791,7 +7996,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
@@ -7800,7 +8005,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>29</v>
@@ -7840,10 +8045,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -7890,11 +8095,11 @@
         <v>37</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>32</v>
@@ -7941,7 +8146,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
@@ -7995,10 +8200,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>50</v>
@@ -8054,56 +8259,56 @@
         <v>9</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="K12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="L12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="29" t="s">
+      <c r="N12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="O12" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="P12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="Q12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="R12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="S12" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
@@ -8129,49 +8334,49 @@
         <v>10</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="I13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="K13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="M13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="29" t="s">
+      <c r="O13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="P13" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
@@ -8200,22 +8405,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="G14" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -8253,29 +8458,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -8310,29 +8515,29 @@
         <v>13</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="I16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -8367,37 +8572,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -8429,19 +8634,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>128</v>
@@ -8450,7 +8655,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -8485,19 +8690,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -8535,19 +8740,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -8585,19 +8790,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" t="s">
-        <v>383</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -8635,37 +8840,37 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>377</v>
-      </c>
       <c r="M22" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -8697,10 +8902,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
@@ -8743,19 +8948,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E24" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -8793,31 +8998,31 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>32</v>
@@ -8854,9 +9059,15 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="30"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11532,11 +11743,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
@@ -11547,6 +11753,11 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11556,12 +11767,7 @@
     <hyperlink ref="C25" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -11573,11 +11779,11 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -11709,10 +11915,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -12315,11 +12521,6 @@
     <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/宝来药通3.0API.xlsx
+++ b/宝来药通3.0API.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
+    <workbookView xWindow="240" yWindow="795" windowWidth="14805" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="招商代理" sheetId="3" r:id="rId1"/>
     <sheet name="药界资讯" sheetId="1" r:id="rId2"/>
     <sheet name="WAP页面" sheetId="5" r:id="rId3"/>
+    <sheet name="后台接口" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="468">
   <si>
     <t>参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1729,79 +1730,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>他的个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUserDetailById.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peoperid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Id取得用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机或邮件取得用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getUserDetailByEmail.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机或邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页取得我的好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得地区通讯录总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页取得推荐人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsRrecommendByPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsAttentionCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsAttentionUserByPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllUserListByPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllUserCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得我的好友总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsUserBypreferPage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得推荐人总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页取得筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得筛选总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsUserBypreferCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsRrecommendCount.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsRrecommendList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得推荐人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getZsUserByName.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按人名搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getInvestmentUserList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/getZsAttentionUserByArea.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他的个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getUserDetailById.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peoperid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据Id取得用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据手机或邮件取得用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getUserDetailByEmail.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机或邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.200:8080/BLZTCloud/getAllUserListByPage.json?uuid=862765010012081&amp;userid=109971&amp;maxrow=50&amp;provinceid=P13&amp;page=0&amp;cityid=C181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getZsAttentionUserByPage.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAllUserListByPage.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAllUserCount.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getZsAttentionCount.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页取得我的好友列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得地区通讯录总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页取得我的好友总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getInvestmentUserList.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,7 +1866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,6 +1946,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2046,7 +2111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2091,21 +2156,13 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2127,17 +2184,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2443,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2496,31 +2562,31 @@
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="36" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="43" t="s">
         <v>3</v>
       </c>
@@ -2563,9 +2629,9 @@
       <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="28" t="s">
         <v>56</v>
       </c>
@@ -2718,70 +2784,70 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="51" customFormat="1">
-      <c r="A6" s="13">
+    <row r="6" spans="1:37" s="39" customFormat="1">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
@@ -3663,68 +3729,68 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="18"/>
     </row>
-    <row r="21" spans="1:37" s="51" customFormat="1">
-      <c r="A21" s="13">
+    <row r="21" spans="1:37" s="39" customFormat="1">
+      <c r="A21" s="36">
         <v>17</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
@@ -3857,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>431</v>
@@ -5909,228 +5975,228 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" s="51" customFormat="1">
-      <c r="A55" s="13">
+    <row r="55" spans="1:37" s="39" customFormat="1">
+      <c r="A55" s="36">
         <v>51</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="13" t="s">
+      <c r="N55" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="13" t="s">
+      <c r="O55" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P55" s="13" t="s">
+      <c r="P55" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q55" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="S55" s="13" t="s">
+      <c r="S55" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="13"/>
-      <c r="AI55" s="13"/>
-      <c r="AJ55" s="13"/>
-      <c r="AK55" s="13"/>
-    </row>
-    <row r="56" spans="1:37" s="51" customFormat="1">
-      <c r="A56" s="13">
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
+      <c r="AH55" s="36"/>
+      <c r="AI55" s="36"/>
+      <c r="AJ55" s="36"/>
+      <c r="AK55" s="36"/>
+    </row>
+    <row r="56" spans="1:37" s="39" customFormat="1">
+      <c r="A56" s="36">
         <v>52</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="13" t="s">
+      <c r="B56" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13" t="s">
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="13" t="s">
+      <c r="O56" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P56" s="13" t="s">
+      <c r="P56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q56" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="R56" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="S56" s="13" t="s">
+      <c r="S56" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="13"/>
-      <c r="AJ56" s="13"/>
-      <c r="AK56" s="13"/>
-    </row>
-    <row r="57" spans="1:37" s="51" customFormat="1">
-      <c r="A57" s="13">
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="36"/>
+      <c r="AK56" s="36"/>
+    </row>
+    <row r="57" spans="1:37" s="39" customFormat="1">
+      <c r="A57" s="36">
         <v>53</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
+      <c r="D57" s="36"/>
+      <c r="E57" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M57" s="13" t="s">
+      <c r="M57" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52"/>
-      <c r="AI57" s="52"/>
-      <c r="AJ57" s="52"/>
-      <c r="AK57" s="52"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
@@ -6174,20 +6240,20 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -6220,73 +6286,125 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" s="51" customFormat="1">
-      <c r="A60" s="13">
+    <row r="60" spans="1:37" s="39" customFormat="1">
+      <c r="A60" s="36">
         <v>56</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
-      <c r="AJ60" s="13"/>
-      <c r="AK60" s="13"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="36"/>
+      <c r="AK60" s="36"/>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="E61" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -6310,18 +6428,40 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="E62" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -6351,30 +6491,76 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q63" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -6392,24 +6578,58 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q64" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -6433,18 +6653,40 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="E65" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -6474,21 +6716,49 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="E66" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6556,9 +6826,7 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>445</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
@@ -7622,6 +7890,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="N3:P3"/>
@@ -7630,21 +7904,14 @@
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B68" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7704,33 +7971,33 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="36" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="43" t="s">
         <v>3</v>
       </c>
@@ -7773,10 +8040,10 @@
       <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -11743,6 +12010,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
@@ -11753,11 +12025,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11775,8 +12042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11803,13 +12070,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="26" customFormat="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D3"/>
@@ -11838,9 +12105,9 @@
       <c r="AA3"/>
     </row>
     <row r="4" spans="1:27" s="26" customFormat="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -12523,4 +12790,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>